--- a/MVandebroek/TAKEN/TASK0/1. FILES/archive/responses_test_TAAK0.xlsx
+++ b/MVandebroek/TAKEN/TASK0/1. FILES/archive/responses_test_TAAK0.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0118298\OneDrive\Projects\MVandebroek\TAKEN\TASK0\1. FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25F7082C-BBF6-44D8-A073-C11C2BD719B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D09B0BBE-50F1-486A-8347-1E74E8A74A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="2904" yWindow="3252" windowWidth="19320" windowHeight="7212"/>
   </bookViews>
   <sheets>
-    <sheet name="responses_test_TAAK0" sheetId="1" r:id="rId1"/>
+    <sheet name="TASK0-116082023.downloadlong (1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -929,9 +929,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="130.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/MVandebroek/TAKEN/TASK0/1. FILES/archive/responses_test_TAAK0.xlsx
+++ b/MVandebroek/TAKEN/TASK0/1. FILES/archive/responses_test_TAAK0.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0118298\OneDrive\Projects\MVandebroek\TAKEN\TASK0\1. FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D09B0BBE-50F1-486A-8347-1E74E8A74A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7EECF92-3971-4682-925F-B285CB52D8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2904" yWindow="3252" windowWidth="19320" windowHeight="7212"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
-    <sheet name="TASK0-116082023.downloadlong (1" sheetId="1" r:id="rId1"/>
+    <sheet name="TASK0-Your responses.downloadlo" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>Username</t>
   </si>
@@ -70,19 +70,13 @@
     <t>Please provide the answer to Question 1.Only respond with a numeric value rounded to three decimal places. Use a point (.) as decimal separator if needed.</t>
   </si>
   <si>
-    <t>Marked</t>
+    <t>Posted</t>
   </si>
   <si>
     <t>Please provide the answer to Question 2.Only respond with a numeric value rounded to three decimal places. Use a point (.) as decimal separator if needed.</t>
   </si>
   <si>
-    <t>0.861</t>
-  </si>
-  <si>
     <t>Please provide the answer to Question 3.Only respond with a numeric value rounded to three decimal places. Use a point (.) as decimal separator if needed.</t>
-  </si>
-  <si>
-    <t>0.587</t>
   </si>
   <si>
     <t>Additional Content</t>
@@ -569,9 +563,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -929,13 +922,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="130.109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -991,8 +980,8 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1">
-        <v>1357</v>
+      <c r="G2">
+        <v>1.357</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1023,8 +1012,8 @@
       <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
-        <v>18</v>
+      <c r="G3">
+        <v>0.86099999999999999</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1053,10 +1042,10 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>0.58699999999999997</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1082,7 +1071,7 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
